--- a/OTH/ARME.xlsx
+++ b/OTH/ARME.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moi\Pictures\JDR SF LORE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Famille\Documents\GitHub\JDR-SF\OTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="192">
   <si>
     <t>OPTIQUE</t>
   </si>
@@ -62,18 +62,6 @@
     <t>CROSSE</t>
   </si>
   <si>
-    <t>Colonne7</t>
-  </si>
-  <si>
-    <t>Colonne8</t>
-  </si>
-  <si>
-    <t>Colonne9</t>
-  </si>
-  <si>
-    <t>Colonne10</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>SUPPRESSEUR</t>
   </si>
   <si>
-    <t>Poids</t>
-  </si>
-  <si>
     <t>ACOG</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>RAIL-D</t>
   </si>
   <si>
-    <t>POIGNE HORIZONTALE</t>
-  </si>
-  <si>
     <t>LANCE-GRENADE</t>
   </si>
   <si>
@@ -308,12 +290,6 @@
     <t>LE FLASH N'EST PLUS VISIBLE</t>
   </si>
   <si>
-    <t>MEILLEUR RECUL ET STABILITE VERTICAL MAIS DEBORDEMENT HORIZONTAL</t>
-  </si>
-  <si>
-    <t>MEILLEUR RECUL ET STABILITE HORIZONTAL MAIS DEBORDEMENT VERTICAL</t>
-  </si>
-  <si>
     <t>LANCE GRENADE SOUS L'ARME</t>
   </si>
   <si>
@@ -323,9 +299,6 @@
     <t>MEILLEUR RECUL ET STABILITE UNIQUMENT ALONGE</t>
   </si>
   <si>
-    <t>PERMET LA DESIGNATION DE CIBLE</t>
-  </si>
-  <si>
     <t>MAX 4000M</t>
   </si>
   <si>
@@ -380,9 +353,6 @@
     <t>BLACKOUT</t>
   </si>
   <si>
-    <t>SCAR-20</t>
-  </si>
-  <si>
     <t>CROSSE LOURDE</t>
   </si>
   <si>
@@ -428,9 +398,6 @@
     <t>CROSSE M16</t>
   </si>
   <si>
-    <t>cons</t>
-  </si>
-  <si>
     <t>SILENCIEUX</t>
   </si>
   <si>
@@ -455,9 +422,6 @@
     <t>PERMET DE VOIR LA CHALEUR DES ENNEMI</t>
   </si>
   <si>
-    <t>TERMIQUE</t>
-  </si>
-  <si>
     <t>SANGLE STNDR</t>
   </si>
   <si>
@@ -485,9 +449,6 @@
     <t>ETANCHEITE</t>
   </si>
   <si>
-    <t>PERMET D'AVOIR UN CANON TOUJOUR SAC</t>
-  </si>
-  <si>
     <t>CAMERA</t>
   </si>
   <si>
@@ -522,6 +483,123 @@
   </si>
   <si>
     <t>PERMET DE VOIR DANS LES ANGLES</t>
+  </si>
+  <si>
+    <t>TYPE2</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>RARE</t>
+  </si>
+  <si>
+    <t>FREIN DE BOUCHE</t>
+  </si>
+  <si>
+    <t>MEILLEUR RECUL ET STABILITE</t>
+  </si>
+  <si>
+    <t>PERMET LA DESIGNATION DE CIBLE ET EST INSENSIBLE AU IEM</t>
+  </si>
+  <si>
+    <t>REDUIT LE RECUL</t>
+  </si>
+  <si>
+    <t>PERMET D'AVOIR UN CANON TOUJOUR SEC</t>
+  </si>
+  <si>
+    <t>SILANCIEUX</t>
+  </si>
+  <si>
+    <t>POIGNE</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>CROSSE EN BOIS</t>
+  </si>
+  <si>
+    <t>An-PEQ</t>
+  </si>
+  <si>
+    <t>POINGNE</t>
+  </si>
+  <si>
+    <t>COMPENSATEUR</t>
+  </si>
+  <si>
+    <t>PERMET DE SUPRIMER 100% du recul</t>
+  </si>
+  <si>
+    <t>APTE</t>
+  </si>
+  <si>
+    <t>PEU APTE</t>
+  </si>
+  <si>
+    <t>PAS APTE</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>RUSTICITE</t>
+  </si>
+  <si>
+    <t>+4 EXCELLANT</t>
+  </si>
+  <si>
+    <t>+3 BON</t>
+  </si>
+  <si>
+    <t>+2 CORRECT</t>
+  </si>
+  <si>
+    <t>+1 MOYEN</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>RAF</t>
+  </si>
+  <si>
+    <t>Five-seveN</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>SCAR-20 SSR</t>
+  </si>
+  <si>
+    <t>NB CHAR</t>
+  </si>
+  <si>
+    <t>NB TIR</t>
+  </si>
+  <si>
+    <t>SOIT MUN</t>
+  </si>
+  <si>
+    <t>LANCE GRENADE</t>
+  </si>
+  <si>
+    <t>DRUM</t>
+  </si>
+  <si>
+    <t>SUPRRESSEUR</t>
+  </si>
+  <si>
+    <t>ANTI-FASH</t>
+  </si>
+  <si>
+    <t>ELASTIQUE</t>
+  </si>
+  <si>
+    <t>ECRAN</t>
   </si>
 </sst>
 </file>
@@ -749,7 +827,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -767,22 +851,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="N1:W41" totalsRowShown="0">
-  <autoFilter ref="N1:W41"/>
-  <sortState ref="N2:W41">
-    <sortCondition ref="O1:O41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="N1:Y42" totalsRowShown="0">
+  <autoFilter ref="N1:Y42"/>
+  <sortState ref="N2:Y42">
+    <sortCondition ref="O1:O42"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="12">
     <tableColumn id="1" name="Nom"/>
     <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Poids"/>
+    <tableColumn id="3" name="TYPE2"/>
     <tableColumn id="4" name="EFFET"/>
-    <tableColumn id="5" name="NOTE" dataDxfId="0"/>
+    <tableColumn id="5" name="NOTE" dataDxfId="2"/>
     <tableColumn id="6" name="SPE"/>
-    <tableColumn id="7" name="Colonne7"/>
-    <tableColumn id="8" name="Colonne8"/>
-    <tableColumn id="9" name="Colonne9"/>
-    <tableColumn id="10" name="Colonne10"/>
+    <tableColumn id="7" name="FAL"/>
+    <tableColumn id="8" name="VECTOR"/>
+    <tableColumn id="9" name="M60E4"/>
+    <tableColumn id="10" name="M200"/>
+    <tableColumn id="11" name="SCAR-20 SSR"/>
+    <tableColumn id="12" name="MP5SD6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="BA1:BG10" totalsRowShown="0">
+  <autoFilter ref="BA1:BG10"/>
+  <sortState ref="BA2:BE10">
+    <sortCondition ref="BA1:BA10"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="NOM"/>
+    <tableColumn id="2" name="RUSTICITE"/>
+    <tableColumn id="3" name="CHAR"/>
+    <tableColumn id="4" name="RAF"/>
+    <tableColumn id="5" name="NB CHAR"/>
+    <tableColumn id="6" name="NB TIR" dataDxfId="1">
+      <calculatedColumnFormula>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="SOIT MUN" dataDxfId="0">
+      <calculatedColumnFormula>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1051,72 +1160,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ64"/>
+  <dimension ref="A1:BG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="80" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="80" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="45.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.5703125" customWidth="1"/>
+    <col min="54" max="54" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="V1" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="W1" t="s">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="X1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>121</v>
       </c>
       <c r="AA1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="5:43" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1125,42 +1261,86 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>155</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>150</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" t="s">
+        <v>169</v>
+      </c>
+      <c r="W2" t="s">
+        <v>170</v>
+      </c>
+      <c r="X2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>169</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="10" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="AD2" s="11"/>
-      <c r="AE2" s="14"/>
+      <c r="AE2" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="AF2" s="10" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AG2" s="11"/>
       <c r="AH2" s="6"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="AL2" s="10"/>
       <c r="AM2" s="11"/>
-      <c r="AN2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="10"/>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="7"/>
-    </row>
-    <row r="3" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC2">
+        <v>30</v>
+      </c>
+      <c r="BD2">
+        <v>3</v>
+      </c>
+      <c r="BE2">
+        <v>8</v>
+      </c>
+      <c r="BF2">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>80</v>
+      </c>
+      <c r="BG2">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1169,13 +1349,34 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>154</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="T3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>169</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="6"/>
@@ -1193,8 +1394,31 @@
       <c r="AO3" s="12"/>
       <c r="AP3" s="13"/>
       <c r="AQ3" s="7"/>
-    </row>
-    <row r="4" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC3">
+        <v>20</v>
+      </c>
+      <c r="BD3">
+        <v>2</v>
+      </c>
+      <c r="BE3">
+        <v>8</v>
+      </c>
+      <c r="BF3">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>80</v>
+      </c>
+      <c r="BG3">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="5:59" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1204,22 +1428,41 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>154</v>
       </c>
       <c r="Q4" t="s">
-        <v>163</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB4" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="T4" t="s">
+        <v>169</v>
+      </c>
+      <c r="U4" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" t="s">
+        <v>169</v>
+      </c>
+      <c r="W4" t="s">
+        <v>170</v>
+      </c>
+      <c r="X4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="AC4" s="9"/>
       <c r="AD4" s="17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AE4" s="18"/>
       <c r="AF4" s="16"/>
@@ -1227,15 +1470,36 @@
       <c r="AH4" s="6"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="9"/>
-      <c r="AM4" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="AM4" s="17"/>
       <c r="AN4" s="18"/>
       <c r="AO4" s="16"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
-    </row>
-    <row r="5" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC4">
+        <v>20</v>
+      </c>
+      <c r="BD4">
+        <v>3</v>
+      </c>
+      <c r="BE4">
+        <v>6</v>
+      </c>
+      <c r="BF4">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>40</v>
+      </c>
+      <c r="BG4">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="5:59" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="10" t="s">
@@ -1251,21 +1515,45 @@
       <c r="L5" s="11"/>
       <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="O5" t="s">
         <v>3</v>
       </c>
+      <c r="P5" t="s">
+        <v>155</v>
+      </c>
       <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB5" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="T5" t="s">
+        <v>169</v>
+      </c>
+      <c r="U5" t="s">
+        <v>169</v>
+      </c>
+      <c r="V5" t="s">
+        <v>171</v>
+      </c>
+      <c r="W5" t="s">
+        <v>169</v>
+      </c>
+      <c r="X5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="19"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="10" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="AH5" s="11"/>
       <c r="AK5" s="8"/>
@@ -1273,12 +1561,33 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="19"/>
       <c r="AO5" s="16"/>
-      <c r="AP5" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="AP5" s="10"/>
       <c r="AQ5" s="11"/>
-    </row>
-    <row r="6" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC5">
+        <v>30</v>
+      </c>
+      <c r="BD5">
+        <v>6</v>
+      </c>
+      <c r="BE5">
+        <v>8</v>
+      </c>
+      <c r="BF5">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>40</v>
+      </c>
+      <c r="BG5">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="5:59" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="17"/>
@@ -1288,16 +1597,38 @@
       <c r="L6" s="13"/>
       <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
         <v>3</v>
       </c>
+      <c r="P6" t="s">
+        <v>154</v>
+      </c>
       <c r="Q6" t="s">
-        <v>153</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="AB6" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="T6" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" t="s">
+        <v>169</v>
+      </c>
+      <c r="V6" t="s">
+        <v>169</v>
+      </c>
+      <c r="W6" t="s">
+        <v>169</v>
+      </c>
+      <c r="X6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AC6" s="9"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="20"/>
@@ -1311,8 +1642,31 @@
       <c r="AO6" s="16"/>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="13"/>
-    </row>
-    <row r="7" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC6">
+        <v>5</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>16</v>
+      </c>
+      <c r="BF6">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>80</v>
+      </c>
+      <c r="BG6">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1325,41 +1679,85 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s">
         <v>3</v>
       </c>
+      <c r="P7" t="s">
+        <v>154</v>
+      </c>
       <c r="Q7" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA7" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="T7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" t="s">
+        <v>169</v>
+      </c>
+      <c r="V7" t="s">
+        <v>169</v>
+      </c>
+      <c r="W7" t="s">
+        <v>169</v>
+      </c>
+      <c r="X7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="10"/>
+      <c r="AC7" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="AD7" s="11"/>
       <c r="AE7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="10"/>
+      <c r="AF7" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="6"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="11"/>
-      <c r="AN7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="10"/>
       <c r="AP7" s="16"/>
       <c r="AQ7" s="7"/>
-    </row>
-    <row r="8" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC7">
+        <v>100</v>
+      </c>
+      <c r="BD7">
+        <v>10</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>80</v>
+      </c>
+      <c r="BG7">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1372,16 +1770,37 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>154</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="S8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" t="s">
+        <v>169</v>
+      </c>
+      <c r="U8" t="s">
+        <v>169</v>
+      </c>
+      <c r="V8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W8" t="s">
+        <v>169</v>
+      </c>
+      <c r="X8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>154</v>
       </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="6"/>
@@ -1399,8 +1818,31 @@
       <c r="AO8" s="12"/>
       <c r="AP8" s="13"/>
       <c r="AQ8" s="7"/>
-    </row>
-    <row r="9" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC8">
+        <v>30</v>
+      </c>
+      <c r="BD8">
+        <v>5</v>
+      </c>
+      <c r="BE8">
+        <v>14</v>
+      </c>
+      <c r="BF8">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>84</v>
+      </c>
+      <c r="BG8">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1411,25 +1853,69 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
         <v>7</v>
       </c>
+      <c r="P9" t="s">
+        <v>154</v>
+      </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="T9" t="s">
+        <v>171</v>
+      </c>
+      <c r="U9" t="s">
+        <v>171</v>
+      </c>
+      <c r="V9" t="s">
+        <v>169</v>
+      </c>
+      <c r="W9" t="s">
+        <v>171</v>
+      </c>
+      <c r="X9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>171</v>
       </c>
       <c r="AA9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="5:43" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC9">
+        <v>20</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>4</v>
+      </c>
+      <c r="BF9">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>80</v>
+      </c>
+      <c r="BG9">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="5:59" x14ac:dyDescent="0.25">
       <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1447,19 +1933,42 @@
       <c r="L10" s="16"/>
       <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>154</v>
       </c>
       <c r="Q10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U10" t="s">
+        <v>169</v>
+      </c>
+      <c r="V10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" t="s">
+        <v>171</v>
+      </c>
+      <c r="X10" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>169</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AD10" s="11"/>
       <c r="AE10" s="14"/>
@@ -1469,19 +1978,42 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="7"/>
-    </row>
-    <row r="11" spans="5:43" x14ac:dyDescent="0.25">
+      <c r="BA10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC10">
+        <v>25</v>
+      </c>
+      <c r="BD10">
+        <v>5</v>
+      </c>
+      <c r="BE10">
+        <v>16</v>
+      </c>
+      <c r="BF10">
+        <f>(Tableau2[[#This Row],[NB CHAR]]*Tableau2[[#This Row],[CHAR]])/Tableau2[[#This Row],[RAF]]</f>
+        <v>80</v>
+      </c>
+      <c r="BG10">
+        <f>Tableau2[[#This Row],[CHAR]]*Tableau2[[#This Row],[NB CHAR]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="5:59" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="12"/>
@@ -1491,15 +2023,36 @@
       <c r="L11" s="13"/>
       <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
         <v>11</v>
       </c>
+      <c r="P11" t="s">
+        <v>154</v>
+      </c>
       <c r="Q11" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="R11" s="5"/>
+      <c r="T11" t="s">
+        <v>169</v>
+      </c>
+      <c r="U11" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11" t="s">
+        <v>169</v>
+      </c>
+      <c r="W11" t="s">
+        <v>171</v>
+      </c>
+      <c r="X11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>169</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="17"/>
@@ -1517,7 +2070,7 @@
       <c r="AP11" s="13"/>
       <c r="AQ11" s="7"/>
     </row>
-    <row r="12" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:59" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1527,37 +2080,58 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
         <v>11</v>
       </c>
+      <c r="P12" t="s">
+        <v>154</v>
+      </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R12" s="5"/>
+      <c r="T12" t="s">
+        <v>169</v>
+      </c>
+      <c r="U12" t="s">
+        <v>169</v>
+      </c>
+      <c r="V12" t="s">
+        <v>169</v>
+      </c>
+      <c r="W12" t="s">
+        <v>171</v>
+      </c>
+      <c r="X12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>169</v>
+      </c>
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AE12" s="18"/>
       <c r="AF12" s="16"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AK12" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AL12" s="9"/>
       <c r="AM12" s="17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AN12" s="18"/>
       <c r="AO12" s="16"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
     </row>
-    <row r="13" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1566,13 +2140,35 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
         <v>11</v>
       </c>
+      <c r="P13" t="s">
+        <v>154</v>
+      </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="T13" t="s">
+        <v>169</v>
+      </c>
+      <c r="U13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V13" t="s">
+        <v>169</v>
+      </c>
+      <c r="W13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>169</v>
       </c>
       <c r="AB13" s="8"/>
       <c r="AC13" s="9"/>
@@ -1580,22 +2176,22 @@
       <c r="AE13" s="19"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AH13" s="11"/>
       <c r="AK13" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AL13" s="9"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="19"/>
       <c r="AO13" s="16"/>
       <c r="AP13" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AQ13" s="11"/>
     </row>
-    <row r="14" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1604,13 +2200,34 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
       </c>
+      <c r="P14" t="s">
+        <v>154</v>
+      </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="T14" t="s">
+        <v>169</v>
+      </c>
+      <c r="U14" t="s">
+        <v>169</v>
+      </c>
+      <c r="V14" t="s">
+        <v>169</v>
+      </c>
+      <c r="W14" t="s">
+        <v>171</v>
+      </c>
+      <c r="X14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>169</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="9"/>
@@ -1620,7 +2237,7 @@
       <c r="AG14" s="12"/>
       <c r="AH14" s="13"/>
       <c r="AK14" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL14" s="9"/>
       <c r="AM14" s="12"/>
@@ -1629,7 +2246,7 @@
       <c r="AP14" s="12"/>
       <c r="AQ14" s="13"/>
     </row>
-    <row r="15" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:59" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1637,22 +2254,40 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>22</v>
+      <c r="N15" t="s">
+        <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="P15" t="s">
+        <v>154</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>169</v>
+      </c>
+      <c r="U15" t="s">
+        <v>169</v>
+      </c>
+      <c r="V15" t="s">
+        <v>169</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
       </c>
       <c r="AA15" s="8"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD15" s="11"/>
       <c r="AE15" s="14" t="s">
@@ -1662,34 +2297,53 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="6"/>
       <c r="AJ15" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK15" s="9"/>
       <c r="AL15" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM15" s="11"/>
       <c r="AN15" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="7"/>
     </row>
-    <row r="16" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:59" x14ac:dyDescent="0.25">
       <c r="N16" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
         <v>0</v>
       </c>
+      <c r="P16" t="s">
+        <v>155</v>
+      </c>
       <c r="Q16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>72</v>
+        <v>152</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="T16" t="s">
+        <v>169</v>
+      </c>
+      <c r="U16" t="s">
+        <v>169</v>
+      </c>
+      <c r="V16" t="s">
+        <v>169</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="6"/>
@@ -1709,77 +2363,142 @@
       <c r="AQ16" s="7"/>
     </row>
     <row r="17" spans="5:43" x14ac:dyDescent="0.25">
-      <c r="N17" t="s">
-        <v>39</v>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="O17" t="s">
         <v>0</v>
       </c>
+      <c r="P17" t="s">
+        <v>154</v>
+      </c>
       <c r="Q17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="T17" t="s">
+        <v>169</v>
+      </c>
+      <c r="U17" t="s">
+        <v>169</v>
+      </c>
+      <c r="V17" t="s">
+        <v>169</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
       </c>
       <c r="AA17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AJ17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O18" t="s">
         <v>0</v>
       </c>
+      <c r="P18" t="s">
+        <v>154</v>
+      </c>
       <c r="Q18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>72</v>
+      <c r="T18" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" t="s">
+        <v>169</v>
+      </c>
+      <c r="V18" t="s">
+        <v>169</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AD18" s="11"/>
-      <c r="AE18" s="14"/>
+      <c r="AE18" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="AF18" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AG18" s="11"/>
       <c r="AH18" s="6"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM18" s="11"/>
       <c r="AN18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="7"/>
     </row>
     <row r="19" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O19" t="s">
         <v>0</v>
       </c>
+      <c r="P19" t="s">
+        <v>155</v>
+      </c>
       <c r="Q19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="T19" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" t="s">
+        <v>169</v>
+      </c>
+      <c r="V19" t="s">
+        <v>169</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+      <c r="X19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="6"/>
@@ -1800,19 +2519,44 @@
     </row>
     <row r="20" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="O20" t="s">
         <v>0</v>
       </c>
+      <c r="P20" t="s">
+        <v>154</v>
+      </c>
       <c r="Q20" t="s">
-        <v>165</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="AB20" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" t="s">
+        <v>170</v>
+      </c>
+      <c r="U20" t="s">
+        <v>171</v>
+      </c>
+      <c r="V20" t="s">
+        <v>171</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="AC20" s="9"/>
       <c r="AD20" s="17" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="AE20" s="18"/>
       <c r="AF20" s="16"/>
@@ -1821,7 +2565,7 @@
       <c r="AK20" s="8"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="17" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="AN20" s="18"/>
       <c r="AO20" s="16"/>
@@ -1830,56 +2574,99 @@
     </row>
     <row r="21" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
         <v>0</v>
       </c>
+      <c r="P21" t="s">
+        <v>154</v>
+      </c>
       <c r="Q21" t="s">
-        <v>142</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB21" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V21" t="s">
+        <v>171</v>
+      </c>
+      <c r="W21" t="s">
+        <v>169</v>
+      </c>
+      <c r="X21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="AC21" s="9"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="16"/>
       <c r="AG21" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AH21" s="11"/>
       <c r="AK21" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AL21" s="9"/>
       <c r="AM21" s="17"/>
       <c r="AN21" s="19"/>
       <c r="AO21" s="16"/>
       <c r="AP21" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AQ21" s="11"/>
     </row>
     <row r="22" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
         <v>0</v>
       </c>
+      <c r="P22" t="s">
+        <v>154</v>
+      </c>
       <c r="Q22" t="s">
-        <v>150</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>151</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="R22" s="5"/>
       <c r="S22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB22" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="T22" t="s">
+        <v>169</v>
+      </c>
+      <c r="U22" t="s">
+        <v>169</v>
+      </c>
+      <c r="V22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W22" t="s">
+        <v>169</v>
+      </c>
+      <c r="X22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="AC22" s="9"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="20"/>
@@ -1896,22 +2683,55 @@
     </row>
     <row r="23" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s">
         <v>0</v>
       </c>
+      <c r="P23" t="s">
+        <v>154</v>
+      </c>
       <c r="Q23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA23" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" t="s">
+        <v>169</v>
+      </c>
+      <c r="U23" t="s">
+        <v>169</v>
+      </c>
+      <c r="V23" t="s">
+        <v>169</v>
+      </c>
+      <c r="W23" t="s">
+        <v>169</v>
+      </c>
+      <c r="X23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="AD23" s="11"/>
       <c r="AE23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF23" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="AG23" s="16"/>
       <c r="AH23" s="6"/>
       <c r="AJ23" s="8" t="s">
@@ -1919,27 +2739,48 @@
       </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AM23" s="11"/>
       <c r="AN23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AO23" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AP23" s="16"/>
       <c r="AQ23" s="7"/>
     </row>
     <row r="24" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>154</v>
       </c>
       <c r="Q24" t="s">
-        <v>98</v>
+        <v>63</v>
+      </c>
+      <c r="T24" t="s">
+        <v>170</v>
+      </c>
+      <c r="U24" t="s">
+        <v>169</v>
+      </c>
+      <c r="V24" t="s">
+        <v>169</v>
+      </c>
+      <c r="W24" t="s">
+        <v>171</v>
+      </c>
+      <c r="X24" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>169</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="6"/>
@@ -1960,73 +2801,136 @@
     </row>
     <row r="25" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>154</v>
       </c>
       <c r="Q25" t="s">
-        <v>96</v>
-      </c>
-      <c r="R25" t="s">
-        <v>97</v>
-      </c>
-      <c r="S25" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="T25" t="s">
+        <v>169</v>
+      </c>
+      <c r="U25" t="s">
+        <v>171</v>
+      </c>
+      <c r="V25" t="s">
+        <v>154</v>
+      </c>
+      <c r="W25" t="s">
+        <v>154</v>
+      </c>
+      <c r="X25" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>169</v>
       </c>
       <c r="AA25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AJ25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="5:43" x14ac:dyDescent="0.25">
       <c r="N26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="P26" t="s">
+        <v>154</v>
       </c>
       <c r="Q26" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="R26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S26" t="s">
+        <v>69</v>
+      </c>
+      <c r="T26" t="s">
+        <v>169</v>
+      </c>
+      <c r="U26" t="s">
+        <v>171</v>
+      </c>
+      <c r="V26" t="s">
+        <v>171</v>
+      </c>
+      <c r="W26" t="s">
+        <v>171</v>
+      </c>
+      <c r="X26" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>169</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AG26" s="11"/>
       <c r="AH26" s="6"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM26" s="11"/>
       <c r="AN26" s="14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AO26" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="7"/>
     </row>
     <row r="27" spans="5:43" x14ac:dyDescent="0.25">
-      <c r="N27" s="1" t="s">
-        <v>26</v>
+      <c r="N27" t="s">
+        <v>162</v>
       </c>
       <c r="O27" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="P27" t="s">
+        <v>154</v>
       </c>
       <c r="Q27" t="s">
-        <v>94</v>
+        <v>157</v>
+      </c>
+      <c r="T27" t="s">
+        <v>169</v>
+      </c>
+      <c r="U27" t="s">
+        <v>154</v>
+      </c>
+      <c r="V27" t="s">
+        <v>171</v>
+      </c>
+      <c r="W27" t="s">
+        <v>171</v>
+      </c>
+      <c r="X27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>169</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="6"/>
@@ -2047,35 +2951,53 @@
     </row>
     <row r="28" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="O28" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="P28" t="s">
+        <v>155</v>
       </c>
       <c r="Q28" t="s">
-        <v>101</v>
-      </c>
-      <c r="R28" t="s">
-        <v>102</v>
+        <v>168</v>
+      </c>
+      <c r="T28" t="s">
+        <v>170</v>
+      </c>
+      <c r="U28" t="s">
+        <v>171</v>
+      </c>
+      <c r="V28" t="s">
+        <v>169</v>
+      </c>
+      <c r="W28" t="s">
+        <v>169</v>
+      </c>
+      <c r="X28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>169</v>
       </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="17" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AE28" s="18"/>
       <c r="AF28" s="16"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AK28" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AL28" s="9"/>
       <c r="AM28" s="17" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AN28" s="18"/>
       <c r="AO28" s="16"/>
@@ -2086,29 +3008,50 @@
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
       <c r="G29" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="3"/>
       <c r="N29" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O29" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>154</v>
       </c>
       <c r="Q29" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="T29" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" t="s">
+        <v>170</v>
+      </c>
+      <c r="V29" t="s">
+        <v>169</v>
+      </c>
+      <c r="W29" t="s">
+        <v>169</v>
+      </c>
+      <c r="X29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>170</v>
       </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="9"/>
@@ -2116,18 +3059,18 @@
       <c r="AE29" s="19"/>
       <c r="AF29" s="16"/>
       <c r="AG29" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AH29" s="11"/>
       <c r="AK29" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AL29" s="9"/>
       <c r="AM29" s="17"/>
       <c r="AN29" s="19"/>
       <c r="AO29" s="16"/>
       <c r="AP29" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AQ29" s="11"/>
     </row>
@@ -2140,14 +3083,38 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
       <c r="L30" s="3"/>
-      <c r="N30" s="1" t="s">
-        <v>32</v>
+      <c r="N30" t="s">
+        <v>41</v>
       </c>
       <c r="O30" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>154</v>
       </c>
       <c r="Q30" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="R30" t="s">
+        <v>93</v>
+      </c>
+      <c r="T30" t="s">
+        <v>169</v>
+      </c>
+      <c r="U30" t="s">
+        <v>169</v>
+      </c>
+      <c r="V30" t="s">
+        <v>169</v>
+      </c>
+      <c r="W30" t="s">
+        <v>169</v>
+      </c>
+      <c r="X30" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>169</v>
       </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="9"/>
@@ -2157,7 +3124,7 @@
       <c r="AG30" s="12"/>
       <c r="AH30" s="13"/>
       <c r="AK30" s="10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AL30" s="9"/>
       <c r="AM30" s="12"/>
@@ -2168,84 +3135,115 @@
     </row>
     <row r="31" spans="5:43" x14ac:dyDescent="0.25">
       <c r="F31" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="16"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="N31" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>154</v>
       </c>
       <c r="Q31" t="s">
-        <v>90</v>
-      </c>
-      <c r="R31" t="s">
-        <v>127</v>
-      </c>
-      <c r="S31" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="T31" t="s">
+        <v>169</v>
+      </c>
+      <c r="U31" t="s">
+        <v>169</v>
+      </c>
+      <c r="V31" t="s">
+        <v>169</v>
+      </c>
+      <c r="W31" t="s">
+        <v>169</v>
+      </c>
+      <c r="X31" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>169</v>
       </c>
       <c r="AA31" s="8"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AF31" s="10"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="6"/>
       <c r="AJ31" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK31" s="9"/>
       <c r="AL31" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AM31" s="11"/>
       <c r="AN31" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AP31" s="16"/>
       <c r="AQ31" s="7"/>
     </row>
     <row r="32" spans="5:43" x14ac:dyDescent="0.25">
       <c r="F32" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="17"/>
       <c r="I32" s="19"/>
       <c r="J32" s="16"/>
       <c r="K32" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L32" s="11"/>
       <c r="N32" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="O32" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
+        <v>155</v>
       </c>
       <c r="Q32" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" t="s">
-        <v>126</v>
-      </c>
-      <c r="S32" t="s">
-        <v>75</v>
+        <v>147</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="T32" t="s">
+        <v>169</v>
+      </c>
+      <c r="U32" t="s">
+        <v>169</v>
+      </c>
+      <c r="V32" t="s">
+        <v>169</v>
+      </c>
+      <c r="W32" t="s">
+        <v>169</v>
+      </c>
+      <c r="X32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>169</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="6"/>
@@ -2266,7 +3264,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F33" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="12"/>
@@ -2274,75 +3272,127 @@
       <c r="J33" s="16"/>
       <c r="K33" s="12"/>
       <c r="L33" s="13"/>
-      <c r="N33" t="s">
-        <v>159</v>
+      <c r="N33" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="O33" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="P33" t="s">
+        <v>154</v>
       </c>
       <c r="Q33" t="s">
-        <v>160</v>
-      </c>
-      <c r="R33" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="R33" t="s">
+        <v>117</v>
+      </c>
+      <c r="S33" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" t="s">
+        <v>169</v>
+      </c>
+      <c r="U33" t="s">
+        <v>169</v>
+      </c>
+      <c r="V33" t="s">
+        <v>169</v>
+      </c>
+      <c r="W33" t="s">
+        <v>170</v>
+      </c>
+      <c r="X33" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>169</v>
+      </c>
       <c r="AA33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AJ33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E34" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="3"/>
-      <c r="N34" s="1" t="s">
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
         <v>25</v>
       </c>
-      <c r="O34" t="s">
-        <v>27</v>
+      <c r="P34" t="s">
+        <v>154</v>
       </c>
       <c r="Q34" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="R34" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="S34" t="s">
+        <v>69</v>
+      </c>
+      <c r="T34" t="s">
+        <v>169</v>
+      </c>
+      <c r="U34" t="s">
+        <v>169</v>
+      </c>
+      <c r="V34" t="s">
+        <v>169</v>
+      </c>
+      <c r="W34" t="s">
+        <v>170</v>
+      </c>
+      <c r="X34" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>169</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AD34" s="11"/>
-      <c r="AE34" s="14"/>
+      <c r="AE34" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="AF34" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AG34" s="11"/>
       <c r="AH34" s="6"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AM34" s="11"/>
       <c r="AN34" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AO34" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="7"/>
@@ -2357,16 +3407,37 @@
       <c r="K35" s="13"/>
       <c r="L35" s="3"/>
       <c r="N35" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="O35" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="P35" t="s">
+        <v>154</v>
       </c>
       <c r="Q35" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R35" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="T35" t="s">
+        <v>169</v>
+      </c>
+      <c r="U35" t="s">
+        <v>169</v>
+      </c>
+      <c r="V35" t="s">
+        <v>169</v>
+      </c>
+      <c r="W35" t="s">
+        <v>169</v>
+      </c>
+      <c r="X35" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>169</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="6"/>
@@ -2386,31 +3457,56 @@
       <c r="AQ35" s="7"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="N36" t="s">
+      <c r="N36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" t="s">
         <v>154</v>
       </c>
-      <c r="O36" t="s">
-        <v>42</v>
-      </c>
       <c r="Q36" t="s">
-        <v>155</v>
-      </c>
-      <c r="R36" s="5"/>
-      <c r="AB36" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="R36" t="s">
+        <v>91</v>
+      </c>
+      <c r="T36" t="s">
+        <v>169</v>
+      </c>
+      <c r="U36" t="s">
+        <v>169</v>
+      </c>
+      <c r="V36" t="s">
+        <v>169</v>
+      </c>
+      <c r="W36" t="s">
+        <v>169</v>
+      </c>
+      <c r="X36" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="AC36" s="9"/>
       <c r="AD36" s="17" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AE36" s="18"/>
       <c r="AF36" s="16"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AK36" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="AL36" s="9"/>
       <c r="AM36" s="17" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AN36" s="18"/>
       <c r="AO36" s="16"/>
@@ -2419,52 +3515,96 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="P37" t="s">
+        <v>154</v>
       </c>
       <c r="Q37" t="s">
-        <v>87</v>
-      </c>
-      <c r="R37" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB37" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="R37" s="5"/>
+      <c r="T37" t="s">
+        <v>170</v>
+      </c>
+      <c r="U37" t="s">
+        <v>169</v>
+      </c>
+      <c r="V37" t="s">
+        <v>169</v>
+      </c>
+      <c r="W37" t="s">
+        <v>169</v>
+      </c>
+      <c r="X37" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="AC37" s="9"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="16"/>
       <c r="AG37" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AH37" s="11"/>
       <c r="AK37" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AL37" s="9"/>
       <c r="AM37" s="17"/>
       <c r="AN37" s="19"/>
       <c r="AO37" s="16"/>
       <c r="AP37" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AQ37" s="11"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="P38" t="s">
+        <v>154</v>
       </c>
       <c r="Q38" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" t="s">
         <v>82</v>
       </c>
-      <c r="R38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB38" s="10"/>
+      <c r="T38" t="s">
+        <v>169</v>
+      </c>
+      <c r="U38" t="s">
+        <v>169</v>
+      </c>
+      <c r="V38" t="s">
+        <v>169</v>
+      </c>
+      <c r="W38" t="s">
+        <v>169</v>
+      </c>
+      <c r="X38" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB38" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="20"/>
@@ -2472,7 +3612,7 @@
       <c r="AG38" s="12"/>
       <c r="AH38" s="13"/>
       <c r="AK38" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AL38" s="9"/>
       <c r="AM38" s="12"/>
@@ -2483,25 +3623,52 @@
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O39" t="s">
         <v>6</v>
       </c>
+      <c r="P39" t="s">
+        <v>154</v>
+      </c>
       <c r="Q39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA39" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="T39" t="s">
+        <v>169</v>
+      </c>
+      <c r="U39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V39" t="s">
+        <v>169</v>
+      </c>
+      <c r="W39" t="s">
+        <v>169</v>
+      </c>
+      <c r="X39" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="AB39" s="9"/>
-      <c r="AC39" s="10"/>
+      <c r="AC39" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="AD39" s="11"/>
       <c r="AE39" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF39" s="10"/>
+      <c r="AF39" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="AG39" s="16"/>
       <c r="AH39" s="6"/>
       <c r="AJ39" s="8" t="s">
@@ -2509,29 +3676,52 @@
       </c>
       <c r="AK39" s="9"/>
       <c r="AL39" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AM39" s="11"/>
       <c r="AN39" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AO39" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AP39" s="16"/>
       <c r="AQ39" s="7"/>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="O40" t="s">
         <v>6</v>
       </c>
+      <c r="P40" t="s">
+        <v>154</v>
+      </c>
       <c r="Q40" t="s">
-        <v>85</v>
-      </c>
-      <c r="R40" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T40" t="s">
+        <v>169</v>
+      </c>
+      <c r="U40" t="s">
+        <v>169</v>
+      </c>
+      <c r="V40" t="s">
+        <v>170</v>
+      </c>
+      <c r="W40" t="s">
+        <v>170</v>
+      </c>
+      <c r="X40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>169</v>
+      </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="12"/>
@@ -2551,46 +3741,98 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O41" t="s">
         <v>6</v>
       </c>
+      <c r="P41" t="s">
+        <v>154</v>
+      </c>
       <c r="Q41" t="s">
+        <v>73</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T41" t="s">
+        <v>169</v>
+      </c>
+      <c r="U41" t="s">
+        <v>169</v>
+      </c>
+      <c r="V41" t="s">
+        <v>169</v>
+      </c>
+      <c r="W41" t="s">
+        <v>169</v>
+      </c>
+      <c r="X41" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>78</v>
+      </c>
+      <c r="O42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q42" t="s">
         <v>79</v>
       </c>
-      <c r="R41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="R42" s="5"/>
+      <c r="T42" t="s">
+        <v>169</v>
+      </c>
+      <c r="U42" t="s">
+        <v>169</v>
+      </c>
+      <c r="V42" t="s">
+        <v>169</v>
+      </c>
+      <c r="W42" t="s">
+        <v>169</v>
+      </c>
+      <c r="X42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>169</v>
+      </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AD42" s="11"/>
       <c r="AE42" s="14"/>
       <c r="AF42" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AG42" s="11"/>
       <c r="AH42" s="6"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="7"/>
       <c r="AL42" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM42" s="11"/>
       <c r="AN42" s="14"/>
       <c r="AO42" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AP42" s="11"/>
       <c r="AQ42" s="7"/>
@@ -2621,7 +3863,7 @@
       <c r="AB44" s="8"/>
       <c r="AC44" s="9"/>
       <c r="AD44" s="17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AE44" s="18"/>
       <c r="AF44" s="16"/>
@@ -2630,7 +3872,7 @@
       <c r="AK44" s="8"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AN44" s="18"/>
       <c r="AO44" s="16"/>
@@ -2644,7 +3886,7 @@
       <c r="AE45" s="19"/>
       <c r="AF45" s="16"/>
       <c r="AG45" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AH45" s="11"/>
       <c r="AK45" s="8"/>
@@ -2653,7 +3895,7 @@
       <c r="AN45" s="19"/>
       <c r="AO45" s="16"/>
       <c r="AP45" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AQ45" s="11"/>
     </row>
@@ -2715,34 +3957,38 @@
     </row>
     <row r="49" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA49" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ49" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA50" s="1"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="10" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="AD50" s="11"/>
-      <c r="AE50" s="14"/>
+      <c r="AE50" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="AF50" s="10" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AG50" s="11"/>
       <c r="AH50" s="6"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="7"/>
       <c r="AL50" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM50" s="11"/>
-      <c r="AN50" s="14"/>
+      <c r="AN50" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="AO50" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AP50" s="11"/>
       <c r="AQ50" s="7"/>
@@ -2766,10 +4012,12 @@
       <c r="AQ51" s="7"/>
     </row>
     <row r="52" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AB52" s="8"/>
+      <c r="AB52" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="AC52" s="9"/>
       <c r="AD52" s="17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="AE52" s="18"/>
       <c r="AF52" s="16"/>
@@ -2778,7 +4026,7 @@
       <c r="AK52" s="8"/>
       <c r="AL52" s="9"/>
       <c r="AM52" s="17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="AN52" s="18"/>
       <c r="AO52" s="16"/>
@@ -2786,27 +4034,33 @@
       <c r="AQ52" s="7"/>
     </row>
     <row r="53" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AB53" s="8"/>
+      <c r="AB53" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="AC53" s="9"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="16"/>
       <c r="AG53" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AH53" s="11"/>
-      <c r="AK53" s="8"/>
+      <c r="AK53" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="AL53" s="9"/>
       <c r="AM53" s="17"/>
       <c r="AN53" s="19"/>
       <c r="AO53" s="16"/>
       <c r="AP53" s="10" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="AQ53" s="11"/>
     </row>
     <row r="54" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AB54" s="10"/>
+      <c r="AB54" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="AC54" s="9"/>
       <c r="AD54" s="12"/>
       <c r="AE54" s="20"/>
@@ -2822,14 +4076,20 @@
       <c r="AQ54" s="13"/>
     </row>
     <row r="55" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA55" s="8"/>
+      <c r="AA55" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="AB55" s="9"/>
-      <c r="AC55" s="10"/>
+      <c r="AC55" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="AD55" s="11"/>
       <c r="AE55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF55" s="10"/>
+      <c r="AF55" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="AG55" s="16"/>
       <c r="AH55" s="6"/>
       <c r="AJ55" s="8"/>
@@ -2863,34 +4123,34 @@
     </row>
     <row r="57" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA57" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AJ57" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA58" s="1"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AD58" s="11"/>
       <c r="AE58" s="14"/>
       <c r="AF58" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AG58" s="11"/>
       <c r="AH58" s="6"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="7"/>
       <c r="AL58" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM58" s="11"/>
       <c r="AN58" s="14"/>
       <c r="AO58" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AP58" s="11"/>
       <c r="AQ58" s="7"/>
@@ -2917,7 +4177,7 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="9"/>
       <c r="AD60" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AE60" s="18"/>
       <c r="AF60" s="16"/>
@@ -2926,7 +4186,7 @@
       <c r="AK60" s="8"/>
       <c r="AL60" s="9"/>
       <c r="AM60" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AN60" s="18"/>
       <c r="AO60" s="16"/>
@@ -2940,7 +4200,7 @@
       <c r="AE61" s="19"/>
       <c r="AF61" s="16"/>
       <c r="AG61" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AH61" s="11"/>
       <c r="AK61" s="8"/>
@@ -2949,7 +4209,7 @@
       <c r="AN61" s="19"/>
       <c r="AO61" s="16"/>
       <c r="AP61" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AQ61" s="11"/>
     </row>
@@ -3230,8 +4490,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>